--- a/Front Board/BOM-FrontBoard-Rev2c.xlsx
+++ b/Front Board/BOM-FrontBoard-Rev2c.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pwver\Documents\Hobby\Curve Tracer\Version 3\Front Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{469AF919-95C5-4B10-9029-691EB464F2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D3593D-99E8-4555-AA33-1D131DBA9AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="1815" windowWidth="28065" windowHeight="16185" xr2:uid="{48624DCA-0D75-4A56-BB2F-AC0F8E911790}"/>
+    <workbookView xWindow="735" yWindow="1095" windowWidth="28065" windowHeight="16185" xr2:uid="{48624DCA-0D75-4A56-BB2F-AC0F8E911790}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM-FrontBoardRev2b" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="589">
   <si>
     <t>Quantity</t>
   </si>
@@ -1347,9 +1347,6 @@
     <t>Gold</t>
   </si>
   <si>
-    <t>[NoParam], Gold</t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
@@ -1792,6 +1789,12 @@
   </si>
   <si>
     <t>541-4.02RCT-ND (1.5W)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mill-Max </t>
+  </si>
+  <si>
+    <t>5382-0-00-15-00-00-03-0/13930622</t>
   </si>
 </sst>
 </file>
@@ -1968,7 +1971,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2034,16 +2037,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2364,8 +2368,8 @@
   </sheetPr>
   <dimension ref="A1:L126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="L51" sqref="L51"/>
+    <sheetView tabSelected="1" topLeftCell="B76" workbookViewId="0">
+      <selection activeCell="K101" sqref="K101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2385,15 +2389,15 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C1" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>500</v>
-      </c>
-      <c r="L3" s="28" t="s">
-        <v>584</v>
+        <v>499</v>
+      </c>
+      <c r="L3" s="26" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2410,19 +2414,19 @@
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>6</v>
@@ -2430,8 +2434,8 @@
       <c r="K4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="27" t="s">
-        <v>583</v>
+      <c r="L4" s="25" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -2464,7 +2468,7 @@
         <v>14</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -2497,7 +2501,7 @@
         <v>14</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2530,7 +2534,7 @@
         <v>14</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -2563,7 +2567,7 @@
         <v>14</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -2596,7 +2600,7 @@
         <v>14</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -2724,7 +2728,7 @@
         <v>14</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -2755,10 +2759,10 @@
         <v>14</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -2791,7 +2795,7 @@
         <v>14</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -3108,7 +3112,7 @@
         <v>14</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -3141,7 +3145,7 @@
         <v>14</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -3273,7 +3277,7 @@
         <v>14</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -3281,7 +3285,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>231</v>
@@ -3309,36 +3313,36 @@
         <v>235</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>573</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>574</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>202</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4" t="s">
         <v>203</v>
       </c>
       <c r="I32" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" s="4" t="s">
         <v>576</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>577</v>
       </c>
       <c r="L32" s="13"/>
     </row>
@@ -3405,7 +3409,7 @@
         <v>14</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -3507,7 +3511,7 @@
         <v>262</v>
       </c>
       <c r="L37" s="12" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -3543,7 +3547,7 @@
         <v>268</v>
       </c>
       <c r="L38" s="12" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -3612,7 +3616,7 @@
         <v>280</v>
       </c>
       <c r="L40" s="12" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -3975,10 +3979,10 @@
         <v>14</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -4250,32 +4254,32 @@
         <v>1</v>
       </c>
       <c r="B60" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="D60" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="E60" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="F60" s="4" t="s">
         <v>443</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>444</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="4" t="s">
         <v>92</v>
       </c>
       <c r="I60" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K60" s="4" t="s">
         <v>445</v>
-      </c>
-      <c r="J60" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K60" s="4" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -4283,30 +4287,30 @@
         <v>1</v>
       </c>
       <c r="B61" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="D61" s="4" t="s">
         <v>448</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>449</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="I61" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="I61" s="4" t="s">
+      <c r="J61" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K61" s="4" t="s">
         <v>452</v>
-      </c>
-      <c r="J61" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K61" s="4" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -4314,30 +4318,30 @@
         <v>3</v>
       </c>
       <c r="B62" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="D62" s="4" t="s">
         <v>455</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>456</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="I62" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="I62" s="4" t="s">
+      <c r="J62" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K62" s="4" t="s">
         <v>459</v>
-      </c>
-      <c r="J62" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K62" s="4" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -4345,30 +4349,30 @@
         <v>1</v>
       </c>
       <c r="B63" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>462</v>
-      </c>
       <c r="D63" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I63" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K63" s="4" t="s">
         <v>464</v>
-      </c>
-      <c r="J63" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K63" s="4" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -4376,30 +4380,30 @@
         <v>1</v>
       </c>
       <c r="B64" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="D64" s="4" t="s">
         <v>467</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>468</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="4" t="s">
         <v>92</v>
       </c>
       <c r="I64" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K64" s="4" t="s">
         <v>470</v>
-      </c>
-      <c r="J64" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K64" s="4" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -4407,30 +4411,30 @@
         <v>1</v>
       </c>
       <c r="B65" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="D65" s="4" t="s">
         <v>473</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>474</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I65" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K65" s="4" t="s">
         <v>476</v>
-      </c>
-      <c r="J65" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K65" s="4" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -4438,30 +4442,30 @@
         <v>2</v>
       </c>
       <c r="B66" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="C66" s="4" t="s">
-        <v>479</v>
-      </c>
       <c r="D66" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I66" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K66" s="4" t="s">
         <v>541</v>
-      </c>
-      <c r="J66" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K66" s="4" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -4469,30 +4473,30 @@
         <v>2</v>
       </c>
       <c r="B67" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="D67" s="4" t="s">
         <v>482</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>483</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G67" s="3"/>
       <c r="H67" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K67" s="4" t="s">
         <v>485</v>
-      </c>
-      <c r="I67" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="J67" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K67" s="4" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -4500,35 +4504,35 @@
         <v>1</v>
       </c>
       <c r="B68" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>488</v>
-      </c>
       <c r="D68" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G68" s="3"/>
       <c r="H68" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I68" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K68" s="4" t="s">
         <v>490</v>
-      </c>
-      <c r="J68" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K68" s="4" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D70" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -4561,7 +4565,7 @@
         <v>14</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -4734,7 +4738,7 @@
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="4" t="s">
@@ -4765,20 +4769,20 @@
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="4" t="s">
         <v>121</v>
       </c>
       <c r="I78" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K78" s="4" t="s">
         <v>513</v>
-      </c>
-      <c r="J78" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K78" s="4" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -4871,7 +4875,7 @@
         <v>145</v>
       </c>
       <c r="K81" s="9" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -4912,13 +4916,13 @@
         <v>1</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>154</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="4" t="s">
@@ -4931,13 +4935,13 @@
         <v>158</v>
       </c>
       <c r="I83" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="J83" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K83" s="4" t="s">
         <v>509</v>
-      </c>
-      <c r="J83" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K83" s="4" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -4976,10 +4980,10 @@
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="11" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>155</v>
@@ -4993,16 +4997,16 @@
         <v>151</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="J85" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K85" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="L85" s="12" t="s">
         <v>569</v>
-      </c>
-      <c r="L85" s="12" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -5043,10 +5047,10 @@
         <v>2</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>170</v>
@@ -5062,7 +5066,7 @@
         <v>171</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J87" s="4" t="s">
         <v>14</v>
@@ -5076,10 +5080,10 @@
         <v>2</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>170</v>
@@ -5236,27 +5240,27 @@
         <v>412</v>
       </c>
       <c r="C93" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="D93" s="4" t="s">
         <v>515</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>516</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G93" s="3"/>
       <c r="H93" s="4" t="s">
         <v>398</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J93" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K93" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -5352,7 +5356,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>1</v>
       </c>
@@ -5383,7 +5387,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>7</v>
       </c>
@@ -5411,96 +5415,99 @@
         <v>437</v>
       </c>
       <c r="K98" s="4" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+      <c r="L98" s="29" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B100" s="5" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B101" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="C101" s="7" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B101" s="7" t="s">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
         <v>521</v>
       </c>
-      <c r="C101" s="7" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
+      <c r="C102" t="s">
         <v>522</v>
       </c>
-      <c r="C102" t="s">
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C103" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C103" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C105" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C105" t="s">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C106" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C106" t="s">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C107" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C107" t="s">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C108" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C109" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C108" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C109" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
+        <v>542</v>
+      </c>
+      <c r="C111" t="s">
         <v>543</v>
       </c>
-      <c r="C111" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B112" s="10" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C112" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B118" s="14" t="s">
-        <v>579</v>
-      </c>
-      <c r="C118" s="25" t="s">
         <v>578</v>
       </c>
-      <c r="D118" s="25"/>
-      <c r="E118" s="25"/>
-      <c r="F118" s="26"/>
+      <c r="C118" s="27" t="s">
+        <v>577</v>
+      </c>
+      <c r="D118" s="27"/>
+      <c r="E118" s="27"/>
+      <c r="F118" s="28"/>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B119" s="15"/>
@@ -5517,13 +5524,13 @@
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B120" s="18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D120" s="19" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F120" s="20" t="s">
         <v>265</v>
@@ -5531,87 +5538,87 @@
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B121" s="18" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D121" s="19" t="s">
+        <v>561</v>
+      </c>
+      <c r="F121" s="20" t="s">
         <v>562</v>
-      </c>
-      <c r="F121" s="20" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B122" s="18" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C122" s="19" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D122" s="19" t="s">
         <v>265</v>
       </c>
       <c r="F122" s="20" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B123" s="18" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C123" s="19" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D123" s="19" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F123" s="20" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B124" s="18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C124" s="19" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D124" s="19" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F124" s="20" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B125" s="18" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D125" s="19" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F125" s="20" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B126" s="21" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C126" s="22" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D126" s="22" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E126" s="23"/>
       <c r="F126" s="24" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
   </sheetData>
@@ -5621,8 +5628,9 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K81" r:id="rId1" xr:uid="{31854DCE-D22B-46B9-96F3-92D44A18FD02}"/>
+    <hyperlink ref="L98" r:id="rId2" display="https://www.digikey.de/de/products/detail/mill-max-manufacturing-corp/5382-0-00-15-00-00-03-0/13930622" xr:uid="{24003202-43E8-409F-A6E6-F0E8ECBE802D}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="68" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="68" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>